--- a/R/data/dfVariables.xlsx
+++ b/R/data/dfVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theobakker/ownCloud - Theo Bakker@hhs.data.surfsara.nl/LTA-HHS (Projectfolder)/00 LTA Git/Git HHs/LTA_Onderzoek/lta-hhs-tidymodels-studiesucces/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theobakker/ownCloud - Theo Bakker@hhs.data.surfsara.nl/LTA-HHS (Projectfolder)/00 LTA Git/Git HHs/LTA_Onderzoek/lta-hhs-fairnessawareness/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9B1D1-0EEC-494F-ACE2-4B0DBB8CF8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5577AB-EFA7-534C-84C2-526224AC3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{28BB89FA-66C8-7B49-A681-0B31AC35E0F9}"/>
+    <workbookView xWindow="3160" yWindow="1900" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{28BB89FA-66C8-7B49-A681-0B31AC35E0F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="135">
   <si>
     <t>Geslacht</t>
   </si>
@@ -388,6 +388,60 @@
   </si>
   <si>
     <t>VAR_Variable_label</t>
+  </si>
+  <si>
+    <t>VAR_Level_label_NL_description</t>
+  </si>
+  <si>
+    <t>mannen</t>
+  </si>
+  <si>
+    <t>vrouwen</t>
+  </si>
+  <si>
+    <t>mbo-studenten</t>
+  </si>
+  <si>
+    <t>havisten</t>
+  </si>
+  <si>
+    <t>vwo-studenten</t>
+  </si>
+  <si>
+    <t>studenten die instromen met een 21+ toets of Colloquium Doctum</t>
+  </si>
+  <si>
+    <t>studenten met een overige vooropleiding</t>
+  </si>
+  <si>
+    <t>studenten met een onbekende vooropleiding</t>
+  </si>
+  <si>
+    <t>studenten die direct na hun vooropleiding instromen</t>
+  </si>
+  <si>
+    <t>studenten met een of meer tussenjaren</t>
+  </si>
+  <si>
+    <t>interne switchers</t>
+  </si>
+  <si>
+    <t>externe switchers</t>
+  </si>
+  <si>
+    <t>studenten die twee of meer studies volgen</t>
+  </si>
+  <si>
+    <t>studenten met een overige aansluiting</t>
+  </si>
+  <si>
+    <t>studenten met een onbekende aansluiting</t>
+  </si>
+  <si>
+    <t>studenten met een buitenlands diploma</t>
+  </si>
+  <si>
+    <t>studenten die instromen met een diploma in het hoger onderwijs</t>
   </si>
 </sst>
 </file>
@@ -761,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620EEF48-2DB9-8141-9BC5-A3C8C6E90AC6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1173,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AE5887-ED83-9847-8F89-0BE6BD6775C5}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,11 +1239,12 @@
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1203,13 +1258,16 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1222,14 +1280,17 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1242,14 +1303,17 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1262,14 +1326,17 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1282,14 +1349,17 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1302,14 +1372,17 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1322,14 +1395,17 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1342,14 +1418,17 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1362,14 +1441,17 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1382,14 +1464,17 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1402,14 +1487,17 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1422,14 +1510,17 @@
       <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1442,14 +1533,17 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1462,14 +1556,17 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1482,14 +1579,17 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1502,14 +1602,17 @@
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1522,14 +1625,17 @@
       <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1542,14 +1648,17 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1562,14 +1671,17 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1582,14 +1694,14 @@
       <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1602,14 +1714,14 @@
       <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1622,14 +1734,14 @@
       <c r="D22" t="s">
         <v>40</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1642,14 +1754,14 @@
       <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1662,14 +1774,14 @@
       <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1682,14 +1794,14 @@
       <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1702,14 +1814,14 @@
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7</v>
       </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1722,14 +1834,14 @@
       <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1742,14 +1854,14 @@
       <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1762,14 +1874,14 @@
       <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1782,14 +1894,14 @@
       <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>12</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1802,14 +1914,14 @@
       <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>13</v>
       </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1822,14 +1934,14 @@
       <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1842,14 +1954,14 @@
       <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1862,14 +1974,14 @@
       <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>16</v>
       </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1882,14 +1994,14 @@
       <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1902,14 +2014,14 @@
       <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1922,14 +2034,14 @@
       <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>19</v>
       </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1942,14 +2054,14 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1962,14 +2074,14 @@
       <c r="D39" t="s">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>21</v>
       </c>
-      <c r="F39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1982,14 +2094,14 @@
       <c r="D40" t="s">
         <v>51</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>22</v>
       </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2002,14 +2114,14 @@
       <c r="D41" t="s">
         <v>66</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>23</v>
       </c>
-      <c r="F41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2022,14 +2134,14 @@
       <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>24</v>
       </c>
-      <c r="F42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2042,14 +2154,14 @@
       <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>25</v>
       </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2062,14 +2174,14 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2082,14 +2194,14 @@
       <c r="D45" t="s">
         <v>67</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>27</v>
       </c>
-      <c r="F45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2102,14 +2214,14 @@
       <c r="D46" t="s">
         <v>56</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>28</v>
       </c>
-      <c r="F46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2122,14 +2234,14 @@
       <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>29</v>
       </c>
-      <c r="F47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2142,10 +2254,10 @@
       <c r="D48" t="s">
         <v>57</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>30</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>33</v>
       </c>
     </row>
